--- a/ML/ML_files/2014_MARCH.xlsx
+++ b/ML/ML_files/2014_MARCH.xlsx
@@ -697,7 +697,7 @@
         <v>17.285</v>
       </c>
       <c r="J6">
-        <v>-32.09140873589818</v>
+        <v>-32.09140873589819</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>97.73</v>
       </c>
       <c r="D14">
-        <v>-63.5853883147447</v>
+        <v>-63.58538831474471</v>
       </c>
       <c r="E14">
         <v>8.808</v>
@@ -1413,7 +1413,7 @@
         <v>42.981</v>
       </c>
       <c r="G20">
-        <v>-26.03010632605105</v>
+        <v>-26.03010632605106</v>
       </c>
       <c r="H20">
         <v>70.044</v>
@@ -1477,7 +1477,7 @@
         <v>20.046</v>
       </c>
       <c r="J21">
-        <v>-16.33742392497255</v>
+        <v>-16.33742392497256</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.554</v>
+        <v>0.5540000000000001</v>
       </c>
       <c r="C29">
         <v>0.9</v>
@@ -1905,7 +1905,7 @@
         <v>357.3170731707317</v>
       </c>
       <c r="H29">
-        <v>0.554</v>
+        <v>0.5540000000000001</v>
       </c>
       <c r="I29">
         <v>0.9</v>
@@ -2073,7 +2073,7 @@
         <v>25.52</v>
       </c>
       <c r="J32">
-        <v>-97.64498432601881</v>
+        <v>-97.64498432601882</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>90.524</v>
       </c>
       <c r="J41">
-        <v>-28.30630551014094</v>
+        <v>-28.30630551014095</v>
       </c>
       <c r="K41">
         <v>30.769</v>
@@ -3651,7 +3651,7 @@
         <v>24.51</v>
       </c>
       <c r="G62">
-        <v>-38.84128926968584</v>
+        <v>-38.84128926968585</v>
       </c>
       <c r="H62">
         <v>44.363</v>
@@ -3752,7 +3752,7 @@
         <v>144.068</v>
       </c>
       <c r="D64">
-        <v>-17.97206874531471</v>
+        <v>-17.97206874531472</v>
       </c>
       <c r="E64">
         <v>37.984</v>
@@ -4210,7 +4210,7 @@
         <v>3.208</v>
       </c>
       <c r="J72">
-        <v>72.69326683291771</v>
+        <v>72.69326683291772</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>2.923</v>
       </c>
       <c r="G74">
-        <v>-15.15566199110503</v>
+        <v>-15.15566199110504</v>
       </c>
       <c r="H74">
         <v>12.396</v>
@@ -4782,7 +4782,7 @@
         <v>3919.945</v>
       </c>
       <c r="C83">
-        <v>5344.904</v>
+        <v>5344.904000000001</v>
       </c>
       <c r="D83">
         <v>-26.66014207177528</v>
@@ -5439,7 +5439,7 @@
         <v>-7.047415751280695</v>
       </c>
       <c r="E95">
-        <v>865.147</v>
+        <v>865.1470000000001</v>
       </c>
       <c r="F95">
         <v>950.802</v>
@@ -5558,7 +5558,7 @@
         <v>579.9</v>
       </c>
       <c r="I97">
-        <v>534.0549999999999</v>
+        <v>534.055</v>
       </c>
       <c r="J97">
         <v>8.58432183951092</v>
@@ -5834,7 +5834,7 @@
         <v>224.57</v>
       </c>
       <c r="D103">
-        <v>76.20341096317406</v>
+        <v>76.20341096317407</v>
       </c>
       <c r="E103">
         <v>187.106</v>
@@ -6158,7 +6158,7 @@
         <v>2967.94</v>
       </c>
       <c r="J109">
-        <v>-59.19412117495636</v>
+        <v>-59.19412117495637</v>
       </c>
       <c r="K109">
         <v>1211.094</v>
@@ -6325,7 +6325,7 @@
         <v>475.297</v>
       </c>
       <c r="C114">
-        <v>88.495</v>
+        <v>88.49500000000001</v>
       </c>
       <c r="D114">
         <v>437.089101079157</v>
@@ -6343,7 +6343,7 @@
         <v>475.297</v>
       </c>
       <c r="I114">
-        <v>88.495</v>
+        <v>88.49500000000001</v>
       </c>
       <c r="J114">
         <v>437.089101079157</v>
@@ -6499,7 +6499,7 @@
         <v>51.982</v>
       </c>
       <c r="G117">
-        <v>323.4696625755068</v>
+        <v>323.4696625755069</v>
       </c>
       <c r="H117">
         <v>603.846</v>
@@ -7098,7 +7098,7 @@
         <v>-38.47091095516465</v>
       </c>
       <c r="K128">
-        <v>72.11199999999999</v>
+        <v>72.112</v>
       </c>
       <c r="L128">
         <v>133.745</v>
@@ -7365,7 +7365,7 @@
         <v>3.965</v>
       </c>
       <c r="D134">
-        <v>-70.97099621689784</v>
+        <v>-70.97099621689785</v>
       </c>
       <c r="E134">
         <v>0.604</v>
@@ -7383,7 +7383,7 @@
         <v>3.965</v>
       </c>
       <c r="J134">
-        <v>-70.97099621689784</v>
+        <v>-70.97099621689785</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>28.628</v>
       </c>
       <c r="D149">
-        <v>-10.76568394578734</v>
+        <v>-10.76568394578735</v>
       </c>
       <c r="E149">
         <v>16.542</v>
@@ -8566,7 +8566,7 @@
         <v>5.644</v>
       </c>
       <c r="G156">
-        <v>145.0035435861091</v>
+        <v>145.0035435861092</v>
       </c>
       <c r="H156">
         <v>16.271</v>
